--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -8,12 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C822C35-AE31-46D6-B41B-D31AD00C7F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6B929-0400-4309-BD94-97C7A5FFEFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F5271F9-EB41-4AA5-937E-D997D947604F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="11" sheetId="4" r:id="rId2"/>
+    <sheet name="23" sheetId="5" r:id="rId3"/>
+    <sheet name="53" sheetId="6" r:id="rId4"/>
+    <sheet name="82" sheetId="3" r:id="rId5"/>
+    <sheet name="98" sheetId="7" r:id="rId6"/>
+    <sheet name="147" sheetId="8" r:id="rId7"/>
+    <sheet name="148" sheetId="9" r:id="rId8"/>
+    <sheet name="215" sheetId="10" r:id="rId9"/>
+    <sheet name="230" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -81,9 +90,6 @@
     <t>Space Complexity</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
     <t>O(n) -- each element is accessed exactly once in the while loop.</t>
   </si>
   <si>
@@ -142,6 +148,72 @@
   </si>
   <si>
     <t>Compared to a brute force method of going through all subarrays of size 1, size 2, size 3, etc, then iterating through the indices, and summing them up from index 1, then index 1 + index 2, etc. The time complexity is reduced from O(n^3) to O(n) with the current method. Space complexity is the same which is O(1) since we only need to keep track of the current sum and maximum sum.</t>
+  </si>
+  <si>
+    <t>When head is NULL or head-&gt;next is NULL, return head.</t>
+  </si>
+  <si>
+    <t>O(n) -- we only need to iterate through the linked-list once.</t>
+  </si>
+  <si>
+    <t>O(1) -- we have two variables (first occurrence and current node).</t>
+  </si>
+  <si>
+    <t>Compare to a method where everytime you arrive at a new node, you iterate through the same linked-list from the beginning to see if the value already exists. The space complexity is reduced from O(n^2) to O(n). Space complexity is the same.</t>
+  </si>
+  <si>
+    <t>Keep track of current node and a previous node. If current node is not the same as next node, append next node to current node and move previous to current. If they are the same, that means we have duplicates, and we move the current node to the next unique node, and the previous-&gt;next to the unique node. If previous is NULL, update head to current too.</t>
+  </si>
+  <si>
+    <t>Write a function that checks if a subtree within the min and max bounds. Call function recursively.</t>
+  </si>
+  <si>
+    <t>Base case in the recursion is when root is empty and return true.</t>
+  </si>
+  <si>
+    <t>O(n) -- we are iterating through every node once.</t>
+  </si>
+  <si>
+    <t>O(h) = O(n) -- the number of recursive calls depends on the height of the tree and in the worst case, the height of tree is n.</t>
+  </si>
+  <si>
+    <t>Compared to a brute force method, where at each node, we iterate through the tree again to find its parents and compare. The complexity is reduced from O(n^2) to O(n). Space complexity will be the same, which depends on the recursive calls on the stack -- O(h) = O(n).</t>
+  </si>
+  <si>
+    <t>Create current node = head, and malloc dummy node and assign to node before head. Iterate through the linked list and check if the next node is greater than the current node. If the next node is greater, extract temp = current-&gt;next and insert to the previous = dummy node. Return dummy-&gt;next.</t>
+  </si>
+  <si>
+    <t>O(n^2) -- insertioni sort iterates has two loops. One that iterates through all the elements, and an inner loop to insert an element to the correct spot.</t>
+  </si>
+  <si>
+    <t>O(1) -- only pointers are used, so the space complexity is independent of the number of elements in the linked list.</t>
+  </si>
+  <si>
+    <t>Use divide-and-conquer. Divide the linked-list into halves by using a slow (=head) and fast (=head-&gt;next) pointer. Iterate until until fast pointer reaches the end, and then split linked list into halves (from head) and (from mid = slow-&gt;next). Write a merge function to merge the sortList(head) and sortList(mid). Create (malloc) a dummy node and a tail node and merge sort.</t>
+  </si>
+  <si>
+    <t>Base case in the recursion is when the head is empty or head-&gt;next is empty.</t>
+  </si>
+  <si>
+    <t>O(log n) because at each level, we only used pointers which has a space complexity of O(1). There are log n levels since we are splitting them in halves every time. Thus, total space complexity is O(log n).</t>
+  </si>
+  <si>
+    <t>O(n log n) -- first iternate linked list with O(n) to find the mid point. Then use divide-and-conquer where the height of the recursion tree is log n and the amount of operations is in O(n) at each level. Thus O(n log n) here dominates the O(n) from the first step.</t>
+  </si>
+  <si>
+    <t>Approach</t>
+  </si>
+  <si>
+    <t>Use quick select algorithm to achieve a average time of O(n). Partition the array until the pivot is at the same position as the k-th largest element.</t>
+  </si>
+  <si>
+    <t>O(n) average case. On average, we are dividing each partition into halves. There are going to be n, n/2, n/4, n/8, etc, which yields a O(n) time complexity. However, say in the worst case, the pivot is chosen to be the smallest element while we are looking for the largest element, the size of the partition will only be reduced 1 at a time, which yields a worst case complexity of O(n^2).</t>
+  </si>
+  <si>
+    <t>At each depth, the space complexity is O(1) since we are sorting in-place. The total space complexity, therefore, depends on the depth of the recursion. In the average case, it will be O(log n), and in the worst case, it'll be O(n).</t>
+  </si>
+  <si>
+    <t>Traverse tree using a traverse(node) function. Check if node is NULL; traverse left then check if k == count; check current node; traverse right.</t>
   </si>
 </sst>
 </file>
@@ -163,12 +235,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,19 +272,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -222,6 +298,535 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>391345</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>162692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51523DA7-2C7C-A498-F81C-F294DDA5D1F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5877745" cy="5496692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>305608</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>124853</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D8B9671-94BD-6920-230F-740F071ACF13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5792008" cy="7363853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>301421</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFD65317-AB0C-3769-5551-891783E3C9B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7343775"/>
+          <a:ext cx="5787821" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324661</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>172112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DA8E84-B72B-F540-3C81-8DCE59FA7F76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5811061" cy="4744112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219871</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>29643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B55271C6-F924-B05C-BD28-235234BD8981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5706271" cy="7649643"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>324661</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>67269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D32D6B36-12E4-45B5-E4FD-31CD86636485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5811061" cy="4258269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>277029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CC28D5-E158-A557-8ACD-1887663392F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5763429" cy="5992061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257977</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>77194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBA13C9-F6FC-C7AE-A908-4E483FEA64B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5744377" cy="7125694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>98795</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F226588F-E622-8C34-FC75-53E5800AC938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7102403"/>
+          <a:ext cx="5743575" cy="2140392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229398</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105773</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C29D6AB-AC51-F9B5-2483-DB4DC58E9E97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5715798" cy="7154273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>267503</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>143799</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90B5E88A-4ED7-FDF5-9610-DF1C308EB408}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5753903" cy="6620799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1082AEA-234F-4AF9-BE46-F9132E309B8F}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,12 +1141,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -557,10 +1162,10 @@
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>15</v>
@@ -572,195 +1177,304 @@
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="8">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>45038</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>26</v>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="8">
         <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>45038</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="I4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="8">
         <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>45038</v>
       </c>
       <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>82</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="C6" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
+      <c r="C7" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
+      <c r="C8" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
+      <c r="C9" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>215</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="C10" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>230</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="C11" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="8">
         <v>2181</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
+      <c r="C12" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -768,4 +1482,135 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78875D6-E202-4D1F-A320-EC03A10654EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{959DEAF0-5B96-4D71-9D42-E28F2687C417}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEBE3C5-ADE5-4ACA-B6E3-E8D5C1DA580E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E81083-AD14-418B-8BF8-203B904B499A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F8998C-DDB2-4CA2-98B1-80226BC3EE46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF34117-3CB0-4CC6-B74D-98C7FEF19DF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8097E28-8D6C-4C70-B97E-5E1B6B1ED89B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A98B4BBF-936D-4822-B761-53CEA623CEF9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C51C284-4580-46FB-BB76-1CAB2F4CE89C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Checklist.xlsx
+++ b/Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A6B929-0400-4309-BD94-97C7A5FFEFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9612B6B-1296-497B-BD3F-6BD6C90189B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4F5271F9-EB41-4AA5-937E-D997D947604F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{4F5271F9-EB41-4AA5-937E-D997D947604F}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>#</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Traverse tree using a traverse(node) function. Check if node is NULL; traverse left then check if k == count; check current node; traverse right.</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray</t>
   </si>
 </sst>
 </file>
@@ -235,18 +238,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -261,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -282,7 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1126,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1082AEA-234F-4AF9-BE46-F9132E309B8F}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,7 +1177,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3">
         <v>11</v>
       </c>
       <c r="B3" t="s">
@@ -1213,7 +1209,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4">
         <v>23</v>
       </c>
       <c r="B4" t="s">
@@ -1245,7 +1241,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5">
         <v>53</v>
       </c>
       <c r="B5" t="s">
@@ -1277,7 +1273,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6">
         <v>82</v>
       </c>
       <c r="B6" t="s">
@@ -1309,7 +1305,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7">
         <v>98</v>
       </c>
       <c r="B7" t="s">
@@ -1341,7 +1337,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8">
         <v>147</v>
       </c>
       <c r="B8" t="s">
@@ -1369,7 +1365,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9">
         <v>148</v>
       </c>
       <c r="B9" t="s">
@@ -1398,15 +1394,15 @@
       </c>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="195" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>215</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="C10" s="4">
-        <v>45039</v>
+        <v>45091</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1414,24 +1410,18 @@
       <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>56</v>
-      </c>
+      <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
-        <v>230</v>
+    <row r="11" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>215</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
         <v>45039</v>
@@ -1443,23 +1433,23 @@
         <v>23</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
-        <v>2181</v>
+    <row r="12" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>230</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4">
         <v>45039</v>
@@ -1470,11 +1460,39 @@
       <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2181</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4">
+        <v>45039</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
